--- a/ATT&CK-Groups.xlsx
+++ b/ATT&CK-Groups.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="570">
   <si>
     <t>G0018</t>
   </si>
@@ -1960,10 +1960,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>摩诃草</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SandCat</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2526,18 +2522,6 @@
   </si>
   <si>
     <t>疑似具有东南亚背景的国家级APT组织，攻击活动最早可追溯到2012年4月，攻击目标涵盖了中国海事机构、海域建设部门、科研院所和航运企业。曾在2019年发起多次网络攻击，窃取了丰田、现代、宝马等老牌车企的敏感数据。2020年以来，海莲花还进行加密货币挖矿，例如曾对法国和越南政府部门进行攻击，并部署挖矿程序。有非常高的社会工程学技巧，常用鱼叉攻击和水坑攻击。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>疑似具有东南亚背景的国家级APT组织，最早活跃时间可追溯至2009年11月。中国和巴基斯坦属于主要目标，其他目标还包括以色列、孟加拉国、美国、英国、日本、韩国等国及中东和东南亚地区，并针对目标国家的政府、军事、电力、工业、外交和经济进行网络间谍活动，窃取敏感信息。主要针对中国政府机构、科研教育领域进行攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>疑似东亚某国支持的组织，早期多利用僵尸网络对目标进行DDos攻击；中后期主要攻击手段转为鱼叉攻击、水坑攻击、供应链攻击等手法，还针对不同人员采取定向社会工程学攻击。发起网络攻击的主要目的是获取大量资金，因此其目标主要是银行、比特币交易所等金融机构和个人。还针对航空航天、工程、技术、政府、媒体、等机构及企业进行渗透，达到窃取重要资料及破坏勒索的目的。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2834,14 +2818,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ATP-C-00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATP-C-06</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Darkhotel</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2850,26 +2826,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ATP-C-08</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATP-C-01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒云藤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATP-C-24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATP-C-30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>潜行者</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2878,31 +2834,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ATP-C-26</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATP-C-41</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>蓝色魔眼</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ATP-C-48</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CNC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最早活跃于2004年，2014年被披露，擅长利用浏览器0day和Nday开展攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最早活跃于2007年，2018年被奇安信纰漏</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2936,6 +2876,155 @@
   </si>
   <si>
     <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APT-C-00</t>
+  </si>
+  <si>
+    <t>APT-C-26</t>
+  </si>
+  <si>
+    <t>APT-C-08</t>
+  </si>
+  <si>
+    <t>APT-C-24</t>
+  </si>
+  <si>
+    <t>APT-C-06</t>
+  </si>
+  <si>
+    <t>APT-C-01</t>
+  </si>
+  <si>
+    <t>APT-C-30</t>
+  </si>
+  <si>
+    <t>APT-C-41</t>
+  </si>
+  <si>
+    <t>APT-C-48</t>
+  </si>
+  <si>
+    <t>双尾蝎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APT-C-23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对中东地区相关国家的教育机构、军事机构等重要领域进行网络间谍活动，以窃取敏感信息为主的网络攻击组织
+2020年2月被披露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APT-C-35</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>肚脑虫/Donot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击活动最早可追溯到2016年
+克什米尔地区相关国家的政府机构等领域进行网络间谍活动，以窃取敏感信息为主的攻击组织</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APT-C-44</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北非狐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单一地区长时间持续攻击进行认定，攻击活动自2017年10月开始，主要利用钓鱼网站和第三方文件托管网站进行载荷投递，并且使用社交媒体进行传播，受害者主要分布在阿拉伯语地区，其中包含疑似具有军事背景的相关人员。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APT-C-34</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金雕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标广泛分布中亚地区，主要活跃在哈萨克斯坦国境内，涉及各行各业，包括教育、航空航天、政府机关、媒体工作人员等。除了常规的社会工程学攻击手段，也喜欢使用物理接触的手段进行攻击，同时还采购了无线电硬件攻击设备。采购了HackingTeam和NSO的商业间谍软件。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APT-C-38</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>军刀狮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年5月被卡巴斯基披露，目标有一个主要的特色目标是西亚中东某国的库尔德人，载荷投递的方式主要为水坑攻击和Telegram频道。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APT-C-37</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍拍熊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>和黄金鼠组织有很强关联，载荷投递的方式主要为水坑攻击。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝宝菇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最早活跃于2007年，2018年被奇安信纰漏。对中国国防、政府、科技、教育以及海事机构等重点单位和部门进行长期的网络间谍活动。主要关注军工、中美关系、两岸关系和海洋相关领域。多次使用Poison Ivy（毒藤）木马</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒云藤/绿斑/Green Spot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APT-C-12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011年开始持续对中国政府、军工、科研、金融等重点单位和部门进行了持续的网络间谍活动。主要关注核工业和科研等相关信息。被攻击目标主要集中在中国大陆境内。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APT-C-09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白象/摩诃草/HangOver/VICEROY TIGER/The Dropping Elephant/Patchwork</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似具有东南亚背景的国家级APT组织，最早活跃时间可追溯至2009年11月。2013年由Norman安全公司披露。主要针对中国、巴基斯坦等亚洲地区国家进行网络间谍活动，其他目标还包括以色列、孟加拉国、美国、英国、日本、韩国等国及中东和东南亚地区，并针对目标国家的政府、军事、电力、工业、外交和经济进行网络间谍活动，窃取敏感信息。主要针对中国政府机构、科研教育领域进行攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APT-C-15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击活动最早可以追溯到2011年12月，主要目标可能涉及到埃及和以色列等国家的不同组织，主要采用利用社交网络进行水坑攻击。该组织疑似有中东背景。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人面狮/Sphinx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似东亚某国支持的组织，早期多利用僵尸网络对目标进行DDos攻击；中后期主要攻击手段转为鱼叉攻击、水坑攻击、供应链攻击等手法，还针对不同人员采取定向社会工程学攻击。发起网络攻击的主要目的是获取大量资金，因此其目标主要是银行、比特币交易所等金融机构和个人。还针对航空航天、工程、技术、政府、媒体、等机构及企业进行渗透，达到窃取重要资料及破坏勒索的目的。疑似分发带有后门的IDA Pro软件，攻击网络安全研究人员。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3110,7 +3199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3132,9 +3221,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3480,15 +3566,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" topLeftCell="B144" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="9" style="5"/>
     <col min="3" max="3" width="23" style="5" customWidth="1"/>
     <col min="4" max="4" width="42.375" style="6" customWidth="1"/>
@@ -3497,10 +3583,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>212</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -3514,14 +3600,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
@@ -3529,14 +3615,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -3546,14 +3632,14 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.15">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -3563,31 +3649,31 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="165" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -3595,14 +3681,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -3612,31 +3698,31 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -3646,14 +3732,14 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1" t="s">
@@ -3661,14 +3747,14 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
@@ -3678,14 +3764,14 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>17</v>
@@ -3695,14 +3781,14 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -3712,65 +3798,65 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="150" x14ac:dyDescent="0.15">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
@@ -3778,14 +3864,14 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
@@ -3795,14 +3881,14 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>30</v>
@@ -3812,48 +3898,48 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="135" x14ac:dyDescent="0.15">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="150" x14ac:dyDescent="0.15">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>36</v>
@@ -3863,14 +3949,14 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A23" s="21">
+      <c r="A23" s="20">
         <v>22</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>38</v>
@@ -3880,14 +3966,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <v>23</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
@@ -3895,14 +3981,14 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <v>24</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>41</v>
@@ -3912,14 +3998,14 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>25</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
@@ -3927,14 +4013,14 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <v>26</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>44</v>
@@ -3944,14 +4030,14 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
         <v>27</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
@@ -3959,14 +4045,14 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A29" s="21">
+      <c r="A29" s="20">
         <v>28</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>47</v>
@@ -3976,14 +4062,14 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A30" s="21">
+      <c r="A30" s="20">
         <v>29</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="1" t="s">
@@ -3991,14 +4077,14 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A31" s="21">
+      <c r="A31" s="20">
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="1" t="s">
@@ -4006,14 +4092,14 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A32" s="21">
+      <c r="A32" s="20">
         <v>31</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>51</v>
@@ -4023,14 +4109,14 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A33" s="21">
+      <c r="A33" s="20">
         <v>32</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>53</v>
@@ -4040,14 +4126,14 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="21">
+      <c r="A34" s="20">
         <v>33</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="1" t="s">
@@ -4055,14 +4141,14 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="21">
+      <c r="A35" s="20">
         <v>34</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>56</v>
@@ -4072,14 +4158,14 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="120" x14ac:dyDescent="0.15">
-      <c r="A36" s="21">
+      <c r="A36" s="20">
         <v>35</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>58</v>
@@ -4089,14 +4175,14 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A37" s="21">
+      <c r="A37" s="20">
         <v>36</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>60</v>
@@ -4106,14 +4192,14 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A38" s="21">
+      <c r="A38" s="20">
         <v>37</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="1" t="s">
@@ -4121,14 +4207,14 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="21">
+      <c r="A39" s="20">
         <v>38</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="1" t="s">
@@ -4136,14 +4222,14 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A40" s="21">
+      <c r="A40" s="20">
         <v>39</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>64</v>
@@ -4153,14 +4239,14 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="21">
+      <c r="A41" s="20">
         <v>40</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="1" t="s">
@@ -4168,14 +4254,14 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="21">
+      <c r="A42" s="20">
         <v>41</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="1" t="s">
@@ -4183,14 +4269,14 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="105" x14ac:dyDescent="0.15">
-      <c r="A43" s="21">
+      <c r="A43" s="20">
         <v>42</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>68</v>
@@ -4200,14 +4286,14 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A44" s="21">
+      <c r="A44" s="20">
         <v>43</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>70</v>
@@ -4217,14 +4303,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A45" s="21">
+      <c r="A45" s="20">
         <v>44</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
@@ -4232,31 +4318,31 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="165" x14ac:dyDescent="0.15">
-      <c r="A46" s="21">
+      <c r="A46" s="20">
         <v>45</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A47" s="21">
+      <c r="A47" s="20">
         <v>46</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>75</v>
@@ -4266,14 +4352,14 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="90" x14ac:dyDescent="0.15">
-      <c r="A48" s="21">
+      <c r="A48" s="20">
         <v>47</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>77</v>
@@ -4283,14 +4369,14 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="21">
+      <c r="A49" s="20">
         <v>48</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="1" t="s">
@@ -4298,14 +4384,14 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A50" s="21">
+      <c r="A50" s="20">
         <v>49</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="1" t="s">
@@ -4313,14 +4399,14 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A51" s="21">
+      <c r="A51" s="20">
         <v>50</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
@@ -4328,14 +4414,14 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" s="21">
+      <c r="A52" s="20">
         <v>51</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="1" t="s">
@@ -4343,14 +4429,14 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="21">
+      <c r="A53" s="20">
         <v>52</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="1" t="s">
@@ -4358,14 +4444,14 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A54" s="21">
+      <c r="A54" s="20">
         <v>53</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>83</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
@@ -4373,14 +4459,14 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A55" s="21">
+      <c r="A55" s="20">
         <v>54</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>84</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="1" t="s">
@@ -4388,14 +4474,14 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="21">
+      <c r="A56" s="20">
         <v>55</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>85</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>86</v>
@@ -4405,14 +4491,14 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="105" x14ac:dyDescent="0.15">
-      <c r="A57" s="21">
+      <c r="A57" s="20">
         <v>56</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="17" t="s">
         <v>87</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>88</v>
@@ -4422,14 +4508,14 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="21">
+      <c r="A58" s="20">
         <v>57</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>89</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="1" t="s">
@@ -4437,14 +4523,14 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A59" s="21">
+      <c r="A59" s="20">
         <v>58</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>91</v>
@@ -4454,14 +4540,14 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="90" x14ac:dyDescent="0.15">
-      <c r="A60" s="21">
+      <c r="A60" s="20">
         <v>59</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>92</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>93</v>
@@ -4471,14 +4557,14 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="21">
+      <c r="A61" s="20">
         <v>60</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>94</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="1" t="s">
@@ -4486,31 +4572,31 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="90" x14ac:dyDescent="0.15">
-      <c r="A62" s="21">
+      <c r="A62" s="20">
         <v>61</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A63" s="21">
+      <c r="A63" s="20">
         <v>62</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="17" t="s">
         <v>97</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="1" t="s">
@@ -4518,14 +4604,14 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A64" s="21">
+      <c r="A64" s="20">
         <v>63</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
@@ -4533,14 +4619,14 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A65" s="21">
+      <c r="A65" s="20">
         <v>64</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>99</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="1" t="s">
@@ -4548,14 +4634,14 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A66" s="21">
+      <c r="A66" s="20">
         <v>65</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>100</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
@@ -4563,14 +4649,14 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A67" s="21">
+      <c r="A67" s="20">
         <v>66</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>101</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>102</v>
@@ -4580,14 +4666,14 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A68" s="21">
+      <c r="A68" s="20">
         <v>67</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="17" t="s">
         <v>103</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>104</v>
@@ -4597,14 +4683,14 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A69" s="21">
+      <c r="A69" s="20">
         <v>68</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>105</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
@@ -4612,14 +4698,14 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A70" s="21">
+      <c r="A70" s="20">
         <v>69</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>106</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>107</v>
@@ -4629,14 +4715,14 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A71" s="21">
+      <c r="A71" s="20">
         <v>70</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="17" t="s">
         <v>108</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="1" t="s">
@@ -4644,14 +4730,14 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A72" s="21">
+      <c r="A72" s="20">
         <v>71</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>110</v>
@@ -4661,14 +4747,14 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A73" s="21">
+      <c r="A73" s="20">
         <v>72</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>112</v>
@@ -4678,31 +4764,31 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="180" x14ac:dyDescent="0.15">
-      <c r="A74" s="21">
+      <c r="A74" s="20">
         <v>73</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="17" t="s">
         <v>113</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A75" s="21">
+      <c r="A75" s="20">
         <v>74</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="17" t="s">
         <v>115</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>116</v>
@@ -4712,31 +4798,31 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="150" x14ac:dyDescent="0.15">
-      <c r="A76" s="21">
+      <c r="A76" s="20">
         <v>75</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="17" t="s">
         <v>117</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A77" s="21">
+      <c r="A77" s="20">
         <v>76</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="17" t="s">
         <v>119</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="1" t="s">
@@ -4744,14 +4830,14 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A78" s="21">
+      <c r="A78" s="20">
         <v>77</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="17" t="s">
         <v>120</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>121</v>
@@ -4761,14 +4847,14 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="90" x14ac:dyDescent="0.15">
-      <c r="A79" s="21">
+      <c r="A79" s="20">
         <v>78</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="17" t="s">
         <v>122</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>123</v>
@@ -4778,14 +4864,14 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A80" s="21">
+      <c r="A80" s="20">
         <v>79</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>125</v>
@@ -4795,14 +4881,14 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A81" s="21">
+      <c r="A81" s="20">
         <v>80</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="17" t="s">
         <v>126</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>127</v>
@@ -4812,14 +4898,14 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="A82" s="21">
+      <c r="A82" s="20">
         <v>81</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="17" t="s">
         <v>128</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>129</v>
@@ -4829,31 +4915,31 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="120" x14ac:dyDescent="0.15">
-      <c r="A83" s="21">
+      <c r="A83" s="20">
         <v>82</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="17" t="s">
         <v>130</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A84" s="21">
+      <c r="A84" s="20">
         <v>83</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="17" t="s">
         <v>132</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
@@ -4861,14 +4947,14 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="21">
+      <c r="A85" s="20">
         <v>84</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="17" t="s">
         <v>133</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="1" t="s">
@@ -4876,14 +4962,14 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="21">
+      <c r="A86" s="20">
         <v>85</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="17" t="s">
         <v>134</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>135</v>
@@ -4893,29 +4979,29 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="105" x14ac:dyDescent="0.15">
-      <c r="A87" s="21">
+      <c r="A87" s="20">
         <v>86</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="17" t="s">
         <v>136</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A88" s="21">
+      <c r="A88" s="20">
         <v>87</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="17" t="s">
         <v>137</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>138</v>
@@ -4925,14 +5011,14 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A89" s="21">
+      <c r="A89" s="20">
         <v>88</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="17" t="s">
         <v>139</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>140</v>
@@ -4942,29 +5028,29 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="150" x14ac:dyDescent="0.15">
-      <c r="A90" s="21">
+      <c r="A90" s="20">
         <v>89</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="17" t="s">
         <v>141</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A91" s="21">
+      <c r="A91" s="20">
         <v>90</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
@@ -4972,14 +5058,14 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A92" s="21">
+      <c r="A92" s="20">
         <v>91</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="17" t="s">
         <v>143</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>144</v>
@@ -4989,14 +5075,14 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="108" x14ac:dyDescent="0.15">
-      <c r="A93" s="21">
+      <c r="A93" s="20">
         <v>92</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="17" t="s">
         <v>145</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>146</v>
@@ -5006,14 +5092,14 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="21">
+      <c r="A94" s="20">
         <v>93</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="17" t="s">
         <v>147</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="1" t="s">
@@ -5021,14 +5107,14 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="90" x14ac:dyDescent="0.15">
-      <c r="A95" s="21">
+      <c r="A95" s="20">
         <v>94</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="17" t="s">
         <v>148</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>149</v>
@@ -5038,14 +5124,14 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A96" s="21">
+      <c r="A96" s="20">
         <v>95</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="17" t="s">
         <v>150</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="1" t="s">
@@ -5053,14 +5139,14 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A97" s="21">
+      <c r="A97" s="20">
         <v>96</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="17" t="s">
         <v>151</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="1" t="s">
@@ -5068,14 +5154,14 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A98" s="21">
+      <c r="A98" s="20">
         <v>97</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="17" t="s">
         <v>152</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
@@ -5083,14 +5169,14 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A99" s="21">
+      <c r="A99" s="20">
         <v>98</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="17" t="s">
         <v>153</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
@@ -5098,14 +5184,14 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A100" s="21">
+      <c r="A100" s="20">
         <v>99</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="17" t="s">
         <v>154</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>155</v>
@@ -5115,14 +5201,14 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A101" s="21">
+      <c r="A101" s="20">
         <v>100</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="17" t="s">
         <v>156</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>157</v>
@@ -5132,14 +5218,14 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.15">
-      <c r="A102" s="21">
+      <c r="A102" s="20">
         <v>101</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="17" t="s">
         <v>158</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
@@ -5147,14 +5233,14 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A103" s="21">
+      <c r="A103" s="20">
         <v>102</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="17" t="s">
         <v>159</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
@@ -5162,14 +5248,14 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A104" s="21">
+      <c r="A104" s="20">
         <v>103</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="17" t="s">
         <v>160</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2" t="s">
@@ -5177,31 +5263,31 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="21">
+      <c r="A105" s="20">
         <v>104</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="17" t="s">
         <v>161</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>162</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A106" s="21">
+      <c r="A106" s="20">
         <v>105</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="17" t="s">
         <v>163</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
@@ -5209,14 +5295,14 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A107" s="21">
+      <c r="A107" s="20">
         <v>106</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="17" t="s">
         <v>164</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
@@ -5224,14 +5310,14 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A108" s="21">
+      <c r="A108" s="20">
         <v>107</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="17" t="s">
         <v>165</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>166</v>
@@ -5241,14 +5327,14 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="21">
+      <c r="A109" s="20">
         <v>108</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="17" t="s">
         <v>167</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>168</v>
@@ -5258,14 +5344,14 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="A110" s="21">
+      <c r="A110" s="20">
         <v>109</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="17" t="s">
         <v>169</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>170</v>
@@ -5275,14 +5361,14 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.15">
-      <c r="A111" s="21">
+      <c r="A111" s="20">
         <v>110</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="17" t="s">
         <v>171</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2" t="s">
@@ -5290,14 +5376,14 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A112" s="21">
+      <c r="A112" s="20">
         <v>111</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="17" t="s">
         <v>172</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="1" t="s">
@@ -5305,14 +5391,14 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A113" s="21">
+      <c r="A113" s="20">
         <v>112</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="17" t="s">
         <v>173</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="1" t="s">
@@ -5320,14 +5406,14 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A114" s="21">
+      <c r="A114" s="20">
         <v>113</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="17" t="s">
         <v>174</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>175</v>
@@ -5337,14 +5423,14 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A115" s="21">
+      <c r="A115" s="20">
         <v>114</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="17" t="s">
         <v>176</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="1" t="s">
@@ -5352,14 +5438,14 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A116" s="21">
+      <c r="A116" s="20">
         <v>115</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="17" t="s">
         <v>177</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="1" t="s">
@@ -5367,14 +5453,14 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A117" s="21">
+      <c r="A117" s="20">
         <v>116</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="17" t="s">
         <v>178</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>179</v>
@@ -5384,14 +5470,14 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="21">
+      <c r="A118" s="20">
         <v>117</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="17" t="s">
         <v>180</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>181</v>
@@ -5401,14 +5487,14 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A119" s="21">
+      <c r="A119" s="20">
         <v>118</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="17" t="s">
         <v>182</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="1" t="s">
@@ -5416,14 +5502,14 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A120" s="21">
+      <c r="A120" s="20">
         <v>119</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="17" t="s">
         <v>183</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>184</v>
@@ -5433,14 +5519,14 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A121" s="21">
+      <c r="A121" s="20">
         <v>120</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="17" t="s">
         <v>185</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="1" t="s">
@@ -5448,14 +5534,14 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A122" s="21">
+      <c r="A122" s="20">
         <v>121</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="17" t="s">
         <v>186</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>187</v>
@@ -5465,14 +5551,14 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A123" s="21">
+      <c r="A123" s="20">
         <v>122</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>189</v>
@@ -5482,14 +5568,14 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A124" s="21">
+      <c r="A124" s="20">
         <v>123</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="17" t="s">
         <v>190</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="1" t="s">
@@ -5497,14 +5583,14 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="90" x14ac:dyDescent="0.15">
-      <c r="A125" s="21">
+      <c r="A125" s="20">
         <v>124</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="17" t="s">
         <v>191</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>192</v>
@@ -5514,14 +5600,14 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A126" s="21">
+      <c r="A126" s="20">
         <v>125</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="17" t="s">
         <v>193</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>194</v>
@@ -5531,14 +5617,14 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A127" s="21">
+      <c r="A127" s="20">
         <v>126</v>
       </c>
-      <c r="B127" s="18" t="s">
+      <c r="B127" s="17" t="s">
         <v>195</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>196</v>
@@ -5548,14 +5634,14 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="90" x14ac:dyDescent="0.15">
-      <c r="A128" s="21">
+      <c r="A128" s="20">
         <v>127</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B128" s="17" t="s">
         <v>197</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>198</v>
@@ -5565,14 +5651,14 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A129" s="21">
+      <c r="A129" s="20">
         <v>128</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="17" t="s">
         <v>199</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>200</v>
@@ -5582,14 +5668,14 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A130" s="21">
+      <c r="A130" s="20">
         <v>129</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="17" t="s">
         <v>201</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="1" t="s">
@@ -5597,14 +5683,14 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A131" s="21">
+      <c r="A131" s="20">
         <v>130</v>
       </c>
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="17" t="s">
         <v>202</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2" t="s">
@@ -5612,14 +5698,14 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A132" s="21">
+      <c r="A132" s="20">
         <v>131</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="17" t="s">
         <v>203</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>204</v>
@@ -5629,14 +5715,14 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A133" s="21">
+      <c r="A133" s="20">
         <v>132</v>
       </c>
-      <c r="B133" s="18" t="s">
+      <c r="B133" s="17" t="s">
         <v>205</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>206</v>
@@ -5646,14 +5732,14 @@
       </c>
     </row>
     <row r="134" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A134" s="21">
+      <c r="A134" s="20">
         <v>133</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="17" t="s">
         <v>207</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2" t="s">
@@ -5661,14 +5747,14 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A135" s="21">
+      <c r="A135" s="20">
         <v>134</v>
       </c>
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="17" t="s">
         <v>208</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>209</v>
@@ -5678,14 +5764,14 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="21">
+      <c r="A136" s="20">
         <v>135</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B136" s="17" t="s">
         <v>210</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>211</v>
@@ -5695,339 +5781,438 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="59.25" x14ac:dyDescent="0.15">
-      <c r="A137" s="21">
+      <c r="A137" s="20">
         <v>136</v>
       </c>
-      <c r="B137" s="18"/>
-      <c r="C137" s="10" t="s">
+      <c r="B137" s="17"/>
+      <c r="C137" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D137" s="11"/>
-      <c r="E137" s="12" t="s">
-        <v>501</v>
+      <c r="D137" s="10"/>
+      <c r="E137" s="11" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A138" s="21">
+      <c r="A138" s="20">
         <v>137</v>
       </c>
-      <c r="B138" s="18"/>
-      <c r="C138" s="13" t="s">
+      <c r="B138" s="17"/>
+      <c r="C138" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="D138" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="E138" s="14" t="s">
-        <v>500</v>
+      <c r="D138" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A139" s="21">
+      <c r="A139" s="20">
         <v>138</v>
       </c>
-      <c r="B139" s="19"/>
-      <c r="C139" s="15" t="s">
+      <c r="B139" s="18"/>
+      <c r="C139" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="D139" s="12" t="s">
+      <c r="D139" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="15" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A140" s="21">
+      <c r="A140" s="20">
         <v>139</v>
       </c>
-      <c r="B140" s="19"/>
-      <c r="C140" s="15" t="s">
+      <c r="B140" s="18"/>
+      <c r="C140" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16" t="s">
-        <v>351</v>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A141" s="21">
+      <c r="A141" s="20">
         <v>140</v>
       </c>
-      <c r="B141" s="19"/>
-      <c r="C141" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="D141" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>498</v>
+      <c r="B141" s="18"/>
+      <c r="C141" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="E141" s="15" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A142" s="21">
+      <c r="A142" s="20">
         <v>141</v>
       </c>
-      <c r="B142" s="19"/>
-      <c r="C142" s="15" t="s">
+      <c r="B142" s="18"/>
+      <c r="C142" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="D142" s="12" t="s">
+      <c r="D142" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A143" s="20">
+        <v>142</v>
+      </c>
+      <c r="B143" s="18"/>
+      <c r="C143" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A143" s="21">
-        <v>142</v>
-      </c>
-      <c r="B143" s="19"/>
-      <c r="C143" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16" t="s">
-        <v>350</v>
-      </c>
-    </row>
     <row r="144" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A144" s="21">
+      <c r="A144" s="20">
         <v>143</v>
       </c>
-      <c r="B144" s="19"/>
-      <c r="C144" s="15" t="s">
+      <c r="B144" s="18"/>
+      <c r="C144" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E144" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A145" s="20">
+        <v>144</v>
+      </c>
+      <c r="B145" s="18"/>
+      <c r="C145" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="E145" s="15" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A146" s="20">
+        <v>145</v>
+      </c>
+      <c r="B146" s="18"/>
+      <c r="C146" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="E146" s="15" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A147" s="20">
+        <v>146</v>
+      </c>
+      <c r="B147" s="18"/>
+      <c r="C147" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A148" s="20">
+        <v>147</v>
+      </c>
+      <c r="B148" s="18"/>
+      <c r="C148" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="D148" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="E148" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A149" s="20">
+        <v>148</v>
+      </c>
+      <c r="B149" s="18"/>
+      <c r="C149" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A150" s="20">
+        <v>149</v>
+      </c>
+      <c r="B150" s="18"/>
+      <c r="C150" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="E150" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A151" s="20">
+        <v>150</v>
+      </c>
+      <c r="B151" s="18"/>
+      <c r="C151" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="E151" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A152" s="20">
+        <v>151</v>
+      </c>
+      <c r="B152" s="18"/>
+      <c r="C152" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="E152" s="15" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A153" s="20">
+        <v>152</v>
+      </c>
+      <c r="B153" s="18"/>
+      <c r="C153" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="E153" s="15" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A154" s="20">
+        <v>153</v>
+      </c>
+      <c r="B154" s="18"/>
+      <c r="C154" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="E154" s="15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A155" s="20">
+        <v>154</v>
+      </c>
+      <c r="B155" s="18"/>
+      <c r="C155" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A156" s="20">
+        <v>155</v>
+      </c>
+      <c r="B156" s="18"/>
+      <c r="C156" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="E156" s="15"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A157" s="20">
+        <v>156</v>
+      </c>
+      <c r="B157" s="18"/>
+      <c r="C157" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="D157" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="D144" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A145" s="21">
-        <v>144</v>
-      </c>
-      <c r="B145" s="19"/>
-      <c r="C145" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="D145" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A146" s="21">
-        <v>145</v>
-      </c>
-      <c r="B146" s="19"/>
-      <c r="C146" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="D146" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A147" s="21">
-        <v>146</v>
-      </c>
-      <c r="B147" s="19"/>
-      <c r="C147" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A148" s="21">
-        <v>147</v>
-      </c>
-      <c r="B148" s="19"/>
-      <c r="C148" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="D148" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A149" s="21">
-        <v>148</v>
-      </c>
-      <c r="B149" s="19"/>
-      <c r="C149" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A150" s="21">
-        <v>149</v>
-      </c>
-      <c r="B150" s="19"/>
-      <c r="C150" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A151" s="21">
-        <v>150</v>
-      </c>
-      <c r="B151" s="19"/>
-      <c r="C151" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="D151" s="16" t="s">
+      <c r="E157" s="15"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A158" s="20">
+        <v>157</v>
+      </c>
+      <c r="B158" s="18"/>
+      <c r="C158" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="E158" s="15"/>
+    </row>
+    <row r="159" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A159" s="20">
+        <v>158</v>
+      </c>
+      <c r="B159" s="18"/>
+      <c r="C159" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="D159" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="E151" s="16" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A152" s="21">
-        <v>151</v>
-      </c>
-      <c r="B152" s="19"/>
-      <c r="C152" s="15" t="s">
+      <c r="E159" s="15" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A160" s="20">
+        <v>159</v>
+      </c>
+      <c r="B160" s="18"/>
+      <c r="C160" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="D152" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A153" s="21">
-        <v>152</v>
-      </c>
-      <c r="B153" s="19"/>
-      <c r="C153" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="D153" s="16" t="s">
-        <v>517</v>
-      </c>
-      <c r="E153" s="16" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A154" s="21">
-        <v>153</v>
-      </c>
-      <c r="B154" s="19"/>
-      <c r="C154" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="D154" s="16" t="s">
-        <v>522</v>
-      </c>
-      <c r="E154" s="16" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A155" s="21">
-        <v>154</v>
-      </c>
-      <c r="B155" s="19"/>
-      <c r="C155" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="D155" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="E155" s="16" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A156" s="21">
-        <v>155</v>
-      </c>
-      <c r="B156" s="19"/>
-      <c r="C156" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="D156" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="E156" s="16"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A157" s="21">
-        <v>156</v>
-      </c>
-      <c r="B157" s="19"/>
-      <c r="C157" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="D157" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="E157" s="16"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A158" s="21">
-        <v>157</v>
-      </c>
-      <c r="B158" s="19"/>
-      <c r="C158" s="15" t="s">
-        <v>534</v>
-      </c>
-      <c r="D158" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="E158" s="16"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A159" s="21"/>
-      <c r="B159" s="19"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A160" s="21"/>
-      <c r="B160" s="19"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A161" s="21"/>
-      <c r="B161" s="19"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
+      <c r="D160" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="E160" s="15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A161" s="20">
+        <v>160</v>
+      </c>
+      <c r="B161" s="18"/>
+      <c r="C161" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E161" s="15" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A162" s="20">
+        <v>161</v>
+      </c>
+      <c r="B162" s="7"/>
+      <c r="C162" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="E162" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A163" s="20">
+        <v>162</v>
+      </c>
+      <c r="B163" s="7"/>
+      <c r="C163" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="E163" s="15" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A164" s="20">
+        <v>163</v>
+      </c>
+      <c r="B164" s="7"/>
+      <c r="C164" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="E164" s="15" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A165" s="20">
+        <v>164</v>
+      </c>
+      <c r="B165" s="7"/>
+      <c r="C165" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="E165" s="15" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A166" s="20">
+        <v>165</v>
+      </c>
+      <c r="B166" s="7"/>
+      <c r="C166" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="E166" s="15" t="s">
+        <v>567</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
